--- a/src/test/java/com/hybframe/testData/LoginData.xlsx
+++ b/src/test/java/com/hybframe/testData/LoginData.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EE523C-166F-4BE1-83FE-C9677FDA0A65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C0537305-D9C1-42E3-9E08-28C50AED5A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="23280" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,12 +35,6 @@
     <t>dfghJikl</t>
   </si>
   <si>
-    <t>fdgsfdFF</t>
-  </si>
-  <si>
-    <t>mngr178963</t>
-  </si>
-  <si>
     <t>mngr181790</t>
   </si>
   <si>
@@ -56,6 +51,12 @@
   </si>
   <si>
     <t>vbhgTUkl</t>
+  </si>
+  <si>
+    <t>zUvAqAr</t>
+  </si>
+  <si>
+    <t>mngr246685</t>
   </si>
 </sst>
 </file>
@@ -454,16 +455,16 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -471,7 +472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -479,36 +480,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
